--- a/TEVA.xlsx
+++ b/TEVA.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEE025F1-815D-4BA3-9D80-0564F6A0C5E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9F1FA71-2138-4A45-B57A-9A38AFCD181F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-39600" yWindow="3540" windowWidth="38700" windowHeight="15345" xr2:uid="{D2213452-9D24-42F2-9207-6C5DFE94D9E3}"/>
+    <workbookView xWindow="-26400" yWindow="1470" windowWidth="25080" windowHeight="18540" xr2:uid="{D2213452-9D24-42F2-9207-6C5DFE94D9E3}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Main" sheetId="1" r:id="rId1"/>
+    <sheet name="Model" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -439,9 +440,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31F66CF8-4FB6-4568-8AB0-FDB25D3CA399}">
   <dimension ref="L2:N9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -450,7 +449,7 @@
         <v>0</v>
       </c>
       <c r="M2" s="1">
-        <v>17.97</v>
+        <v>21.42</v>
       </c>
     </row>
     <row r="3" spans="12:14" x14ac:dyDescent="0.2">
@@ -470,7 +469,7 @@
       </c>
       <c r="M4" s="3">
         <f>+M2*M3</f>
-        <v>20360.009999999998</v>
+        <v>24268.86</v>
       </c>
     </row>
     <row r="5" spans="12:14" x14ac:dyDescent="0.2">
@@ -501,7 +500,7 @@
       </c>
       <c r="M7" s="3">
         <f>+M4-M5+M6</f>
-        <v>36742.009999999995</v>
+        <v>40650.86</v>
       </c>
     </row>
     <row r="9" spans="12:14" x14ac:dyDescent="0.2">
@@ -512,4 +511,16 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69CA9D26-9673-45DF-B032-216B3A99BA0B}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>